--- a/import/Review_source_code/HongTT/Name_File_Create.xlsx
+++ b/import/Review_source_code/HongTT/Name_File_Create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\import\Review_source_code\HongTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2FA3A-9A7F-42C9-87E8-99F24033CEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B24000D-7200-4B2D-80FD-AD121822E141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AAF30CE-1564-4E60-BC8F-C92812098463}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AAF30CE-1564-4E60-BC8F-C92812098463}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW_FILE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -36,10 +36,40 @@
     <t>Class Name</t>
   </si>
   <si>
-    <t>CountryApiController</t>
-  </si>
-  <si>
     <t>Funtion Name</t>
+  </si>
+  <si>
+    <t>ImportFileCSVApiController</t>
+  </si>
+  <si>
+    <t>ImportCSVService</t>
+  </si>
+  <si>
+    <t>ImportCSVServiceImpl</t>
+  </si>
+  <si>
+    <t>AppContants</t>
+  </si>
+  <si>
+    <t>add line 18-27</t>
+  </si>
+  <si>
+    <t>ImportFileCSVResDto</t>
+  </si>
+  <si>
+    <t>ErrorDto</t>
+  </si>
+  <si>
+    <t>UserResDto</t>
+  </si>
+  <si>
+    <t>USER_01_SELECT_All.sql</t>
+  </si>
+  <si>
+    <t>UserDao</t>
+  </si>
+  <si>
+    <t>UserDaoImpl</t>
   </si>
 </sst>
 </file>
@@ -419,9 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC064F79-EC9C-45F9-A94B-EE3B7173708D}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -441,7 +469,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -452,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -466,9 +494,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
+        <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -481,9 +512,12 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
+        <f t="shared" ref="B5:B12" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -495,21 +529,33 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -521,8 +567,13 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -534,8 +585,13 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -547,8 +603,13 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -560,8 +621,13 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -573,8 +639,13 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -782,25 +853,23 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
@@ -817,23 +886,25 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
